--- a/vignettes/indicateurs.xlsx
+++ b/vignettes/indicateurs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="523">
   <si>
     <t>niv</t>
   </si>
@@ -1580,6 +1580,9 @@
   </si>
   <si>
     <t>UHCD</t>
+  </si>
+  <si>
+    <t>Cancerologie</t>
   </si>
 </sst>
 </file>
@@ -2409,15 +2412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U254"/>
+  <dimension ref="A1:V254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="V2" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2481,8 +2484,11 @@
       <c r="U1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2537,8 +2543,11 @@
       <c r="U2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2593,8 +2602,11 @@
       <c r="U3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2655,8 +2667,11 @@
       <c r="U4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2714,8 +2729,11 @@
       <c r="U5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2773,8 +2791,11 @@
       <c r="U6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2832,8 +2853,11 @@
       <c r="U7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2891,8 +2915,11 @@
       <c r="U8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2950,8 +2977,11 @@
       <c r="U9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -3009,8 +3039,11 @@
       <c r="U10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3059,8 +3092,11 @@
       <c r="U11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3106,8 +3142,11 @@
       <c r="U12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -3156,8 +3195,11 @@
       <c r="U13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3206,8 +3248,11 @@
       <c r="U14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3256,8 +3301,11 @@
       <c r="U15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3306,8 +3354,11 @@
       <c r="U16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3356,8 +3407,11 @@
       <c r="U17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3392,7 +3446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -3444,8 +3498,11 @@
       <c r="U19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -3471,7 +3528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3491,7 +3548,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3523,7 +3580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3558,7 +3615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3593,7 +3650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3631,7 +3688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -3669,7 +3726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3686,7 +3743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3724,7 +3781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -3741,7 +3798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3755,7 +3812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3787,7 +3844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3822,7 +3879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3860,7 +3917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3883,7 +3940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -3903,7 +3960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3929,7 +3986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -3955,7 +4012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3984,7 +4041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -4013,7 +4070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -4042,7 +4099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -4056,7 +4113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -4073,7 +4130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -4090,7 +4147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -4107,7 +4164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -4124,7 +4181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -4179,8 +4236,11 @@
       <c r="U46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -4235,8 +4295,11 @@
       <c r="U47" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -4291,8 +4354,11 @@
       <c r="U48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4350,8 +4416,11 @@
       <c r="U49" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4377,7 +4446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -4426,8 +4495,11 @@
       <c r="U51" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -4476,8 +4548,11 @@
       <c r="U52" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -4532,8 +4607,11 @@
       <c r="U53" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -4591,8 +4669,11 @@
       <c r="U54" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -4632,8 +4713,11 @@
       <c r="U55" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -4688,8 +4772,11 @@
       <c r="U56" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4747,8 +4834,11 @@
       <c r="U57" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4806,8 +4896,11 @@
       <c r="U58" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -4865,8 +4958,11 @@
       <c r="U59" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -4921,8 +5017,11 @@
       <c r="U60" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4980,8 +5079,11 @@
       <c r="U61" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -5039,8 +5141,11 @@
       <c r="U62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -5098,8 +5203,11 @@
       <c r="U63" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -5157,8 +5265,11 @@
       <c r="U64" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -5204,8 +5315,11 @@
       <c r="U65" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -5254,8 +5368,11 @@
       <c r="U66" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -5304,8 +5421,11 @@
       <c r="U67" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
@@ -5354,8 +5474,11 @@
       <c r="U68" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -5404,8 +5527,11 @@
       <c r="U69" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -5460,8 +5586,11 @@
       <c r="U70" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -5487,7 +5616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -5536,8 +5665,11 @@
       <c r="U72" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -5563,7 +5695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -5612,8 +5744,11 @@
       <c r="U74" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -5653,8 +5788,11 @@
       <c r="U75" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -5694,8 +5832,11 @@
       <c r="U76" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -5744,8 +5885,11 @@
       <c r="U77" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -5800,8 +5944,11 @@
       <c r="U78" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -5859,8 +6006,11 @@
       <c r="U79" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -5918,8 +6068,11 @@
       <c r="U80" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -5968,8 +6121,11 @@
       <c r="U81" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -6018,8 +6174,11 @@
       <c r="U82" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -6051,7 +6210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -6083,7 +6242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -6103,7 +6262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -6135,7 +6294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -6161,7 +6320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -6187,7 +6346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -6201,7 +6360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -6230,7 +6389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -6256,7 +6415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -6305,8 +6464,11 @@
       <c r="U92" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -6320,7 +6482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -6334,7 +6496,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -6348,7 +6510,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -6362,7 +6524,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -6376,7 +6538,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -6390,7 +6552,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -6436,8 +6598,11 @@
       <c r="U99" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -6483,8 +6648,11 @@
       <c r="U100" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3</v>
       </c>
@@ -6530,8 +6698,11 @@
       <c r="U101" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -6577,8 +6748,11 @@
       <c r="U102" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -6624,8 +6798,11 @@
       <c r="U103" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -6671,8 +6848,11 @@
       <c r="U104" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -6718,8 +6898,11 @@
       <c r="U105" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -6765,8 +6948,11 @@
       <c r="U106" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -6812,8 +6998,11 @@
       <c r="U107" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -6868,8 +7057,11 @@
       <c r="U108" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -6924,8 +7116,11 @@
       <c r="U109" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -6980,8 +7175,11 @@
       <c r="U110" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3</v>
       </c>
@@ -7036,8 +7234,11 @@
       <c r="U111" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -7092,8 +7293,11 @@
       <c r="U112" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
@@ -7148,8 +7352,11 @@
       <c r="U113" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3</v>
       </c>
@@ -7204,8 +7411,11 @@
       <c r="U114" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -7260,8 +7470,11 @@
       <c r="U115" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -7316,8 +7529,11 @@
       <c r="U116" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -7372,8 +7588,11 @@
       <c r="U117" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
@@ -7384,7 +7603,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -7430,8 +7649,11 @@
       <c r="U119" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -7477,8 +7699,11 @@
       <c r="U120" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -7509,8 +7734,11 @@
       <c r="T121" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -7556,8 +7784,11 @@
       <c r="U122" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -7603,8 +7834,11 @@
       <c r="U123" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -7635,8 +7869,11 @@
       <c r="T124" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -7682,8 +7919,11 @@
       <c r="U125" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2</v>
       </c>
@@ -7729,8 +7969,11 @@
       <c r="U126" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3</v>
       </c>
@@ -7761,8 +8004,11 @@
       <c r="T127" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -7817,8 +8063,11 @@
       <c r="U128" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -7873,8 +8122,11 @@
       <c r="U129" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -7929,8 +8181,11 @@
       <c r="U130" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -7985,8 +8240,11 @@
       <c r="U131" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -8041,8 +8299,11 @@
       <c r="U132" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3</v>
       </c>
@@ -8097,8 +8358,11 @@
       <c r="U133" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3</v>
       </c>
@@ -8153,8 +8417,11 @@
       <c r="U134" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
@@ -8209,8 +8476,11 @@
       <c r="U135" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -8265,8 +8535,11 @@
       <c r="U136" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2</v>
       </c>
@@ -8321,8 +8594,11 @@
       <c r="U137" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3</v>
       </c>
@@ -8377,8 +8653,11 @@
       <c r="U138" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -8433,8 +8712,11 @@
       <c r="U139" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3</v>
       </c>
@@ -8489,8 +8771,11 @@
       <c r="U140" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2</v>
       </c>
@@ -8545,8 +8830,11 @@
       <c r="U141" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3</v>
       </c>
@@ -8601,8 +8889,11 @@
       <c r="U142" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -8657,8 +8948,11 @@
       <c r="U143" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -8713,8 +9007,11 @@
       <c r="U144" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2</v>
       </c>
@@ -8769,8 +9066,11 @@
       <c r="U145" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3</v>
       </c>
@@ -8825,8 +9125,11 @@
       <c r="U146" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3</v>
       </c>
@@ -8881,8 +9184,11 @@
       <c r="U147" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -8937,8 +9243,11 @@
       <c r="U148" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2</v>
       </c>
@@ -8993,8 +9302,11 @@
       <c r="U149" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3</v>
       </c>
@@ -9049,8 +9361,11 @@
       <c r="U150" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3</v>
       </c>
@@ -9105,8 +9420,11 @@
       <c r="U151" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3</v>
       </c>
@@ -9161,8 +9479,11 @@
       <c r="U152" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2</v>
       </c>
@@ -9176,7 +9497,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3</v>
       </c>
@@ -9190,7 +9511,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3</v>
       </c>
@@ -9204,7 +9525,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -9224,7 +9545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2</v>
       </c>
@@ -9244,7 +9565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2</v>
       </c>
@@ -9264,7 +9585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>3</v>
       </c>
@@ -9284,7 +9605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4</v>
       </c>
@@ -9624,7 +9945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>3</v>
       </c>
@@ -9644,7 +9965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -9699,8 +10020,11 @@
       <c r="U178" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2</v>
       </c>
@@ -9755,8 +10079,11 @@
       <c r="U179" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V179" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
@@ -9811,8 +10138,11 @@
       <c r="U180" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V180" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3</v>
       </c>
@@ -9867,8 +10197,11 @@
       <c r="U181" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3</v>
       </c>
@@ -9891,7 +10224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>3</v>
       </c>
@@ -9937,8 +10270,11 @@
       <c r="U183" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V183" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -9961,7 +10297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>3</v>
       </c>
@@ -10007,8 +10343,11 @@
       <c r="U185" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2</v>
       </c>
@@ -10063,8 +10402,11 @@
       <c r="U186" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>3</v>
       </c>
@@ -10122,8 +10464,11 @@
       <c r="U187" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3</v>
       </c>
@@ -10181,8 +10526,11 @@
       <c r="U188" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V188" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>3</v>
       </c>
@@ -10237,8 +10585,11 @@
       <c r="U189" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V189" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3</v>
       </c>
@@ -10264,7 +10615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3</v>
       </c>
@@ -10290,7 +10641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3</v>
       </c>
@@ -10339,8 +10690,11 @@
       <c r="U192" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3</v>
       </c>
@@ -10389,8 +10743,11 @@
       <c r="U193" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V193" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2</v>
       </c>
@@ -10442,8 +10799,11 @@
       <c r="U194" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V194" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3</v>
       </c>
@@ -10495,8 +10855,11 @@
       <c r="U195" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V195" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3</v>
       </c>
@@ -10548,8 +10911,11 @@
       <c r="U196" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2</v>
       </c>
@@ -10604,8 +10970,11 @@
       <c r="U197" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3</v>
       </c>
@@ -10660,8 +11029,11 @@
       <c r="U198" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V198" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -10716,8 +11088,11 @@
       <c r="U199" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3</v>
       </c>
@@ -10772,8 +11147,11 @@
       <c r="U200" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -10825,8 +11203,11 @@
       <c r="U201" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V201" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2</v>
       </c>
@@ -10881,8 +11262,11 @@
       <c r="U202" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V202" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3</v>
       </c>
@@ -10937,8 +11321,11 @@
       <c r="U203" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V203" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>4</v>
       </c>
@@ -10993,8 +11380,11 @@
       <c r="U204" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V204" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4</v>
       </c>
@@ -11049,8 +11439,11 @@
       <c r="U205" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4</v>
       </c>
@@ -11105,8 +11498,11 @@
       <c r="U206" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V206" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>4</v>
       </c>
@@ -11161,8 +11557,11 @@
       <c r="U207" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V207" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>3</v>
       </c>
@@ -11217,8 +11616,11 @@
       <c r="U208" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V208" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4</v>
       </c>
@@ -11273,8 +11675,11 @@
       <c r="U209" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V209" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>4</v>
       </c>
@@ -11329,8 +11734,11 @@
       <c r="U210" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V210" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>4</v>
       </c>
@@ -11385,8 +11793,11 @@
       <c r="U211" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V211" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>4</v>
       </c>
@@ -11441,8 +11852,11 @@
       <c r="U212" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V212" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>4</v>
       </c>
@@ -11497,8 +11911,11 @@
       <c r="U213" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V213" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>3</v>
       </c>
@@ -11553,8 +11970,11 @@
       <c r="U214" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V214" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4</v>
       </c>
@@ -11609,8 +12029,11 @@
       <c r="U215" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V215" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>4</v>
       </c>
@@ -11665,8 +12088,11 @@
       <c r="U216" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V216" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4</v>
       </c>
@@ -11721,8 +12147,11 @@
       <c r="U217" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V217" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4</v>
       </c>
@@ -11777,8 +12206,11 @@
       <c r="U218" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V218" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4</v>
       </c>
@@ -11833,8 +12265,11 @@
       <c r="U219" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>3</v>
       </c>
@@ -11889,8 +12324,11 @@
       <c r="U220" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4</v>
       </c>
@@ -11945,8 +12383,11 @@
       <c r="U221" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V221" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4</v>
       </c>
@@ -12001,8 +12442,11 @@
       <c r="U222" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V222" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4</v>
       </c>
@@ -12057,8 +12501,11 @@
       <c r="U223" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>4</v>
       </c>
@@ -12113,8 +12560,11 @@
       <c r="U224" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V224" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4</v>
       </c>
@@ -12169,8 +12619,11 @@
       <c r="U225" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V225" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4</v>
       </c>
@@ -12225,8 +12678,11 @@
       <c r="U226" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V226" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2</v>
       </c>
@@ -12240,7 +12696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2</v>
       </c>
@@ -12254,7 +12710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>3</v>
       </c>
@@ -12268,7 +12724,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>3</v>
       </c>
@@ -12282,7 +12738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>3</v>
       </c>
@@ -12296,7 +12752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>3</v>
       </c>
@@ -12310,7 +12766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2</v>
       </c>
@@ -12324,7 +12780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>3</v>
       </c>
@@ -12338,7 +12794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>4</v>
       </c>
@@ -12352,7 +12808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>3</v>
       </c>
@@ -12366,7 +12822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4</v>
       </c>
@@ -12380,7 +12836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2</v>
       </c>
@@ -12394,7 +12850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>3</v>
       </c>
@@ -12408,7 +12864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>4</v>
       </c>
@@ -12422,7 +12878,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>3</v>
       </c>
@@ -12436,7 +12892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4</v>
       </c>
@@ -12450,7 +12906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2</v>
       </c>
@@ -12464,7 +12920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>3</v>
       </c>
@@ -12478,7 +12934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>4</v>
       </c>
@@ -12492,7 +12948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>3</v>
       </c>
@@ -12506,7 +12962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>4</v>
       </c>
@@ -12520,7 +12976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -12578,8 +13034,11 @@
       <c r="U248" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V248" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2</v>
       </c>
@@ -12637,8 +13096,11 @@
       <c r="U249" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>3</v>
       </c>
@@ -12696,8 +13158,11 @@
       <c r="U250" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V250" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2</v>
       </c>
@@ -12755,8 +13220,11 @@
       <c r="U251" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V251" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>3</v>
       </c>
@@ -12814,8 +13282,11 @@
       <c r="U252" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V252" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2</v>
       </c>
@@ -12873,8 +13344,11 @@
       <c r="U253" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V253" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>3</v>
       </c>
@@ -12930,6 +13404,9 @@
         <v>15</v>
       </c>
       <c r="U254" t="s">
+        <v>15</v>
+      </c>
+      <c r="V254" t="s">
         <v>15</v>
       </c>
     </row>
